--- a/_Experiments/__dataRepo/_model_RotaRod plot.xlsx
+++ b/_Experiments/__dataRepo/_model_RotaRod plot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,13 +206,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0182438672048396</c:v>
+                    <c:v>1.8243867204839566E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0128368353309408</c:v>
+                    <c:v>1.2836835330940793E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.00712840494984162</c:v>
+                    <c:v>7.1284049498416199E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -219,13 +224,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0182438672048396</c:v>
+                    <c:v>1.8243867204839566E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0128368353309408</c:v>
+                    <c:v>1.2836835330940793E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.00712840494984162</c:v>
+                    <c:v>7.1284049498416199E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -255,13 +260,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.90915721662</c:v>
+                  <c:v>0.90915721662000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8913112833</c:v>
+                  <c:v>0.89131128329999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.804698727773333</c:v>
+                  <c:v>0.80469872777333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,13 +305,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0366074258538055</c:v>
+                    <c:v>3.6607425853805532E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0380568613711898</c:v>
+                    <c:v>3.8056861371189778E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0555968325266233</c:v>
+                    <c:v>5.5596832526623306E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -318,13 +323,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0366074258538055</c:v>
+                    <c:v>3.6607425853805532E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0380568613711898</c:v>
+                    <c:v>3.8056861371189778E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0555968325266233</c:v>
+                    <c:v>5.5596832526623306E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -354,13 +359,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.802259860603333</c:v>
+                  <c:v>0.80225986060333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.685572883666667</c:v>
+                  <c:v>0.68557288366666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412255384716667</c:v>
+                  <c:v>0.41225538471666673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,13 +404,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0143055051501234</c:v>
+                    <c:v>1.4305505150123365E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0524446417680856</c:v>
+                    <c:v>5.2444641768085581E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0468266761826505</c:v>
+                    <c:v>4.6826676182650517E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -417,13 +422,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0143055051501234</c:v>
+                    <c:v>1.4305505150123365E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0524446417680856</c:v>
+                    <c:v>5.2444641768085581E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0468266761826505</c:v>
+                    <c:v>4.6826676182650517E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -453,13 +458,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.689265561666667</c:v>
+                  <c:v>0.68926556166666675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.472458585</c:v>
+                  <c:v>0.47245858500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.331589218</c:v>
+                  <c:v>0.33158921800000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,13 +498,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0143055051501234</c:v>
+                    <c:v>1.4305505150123365E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0405550682248461</c:v>
+                    <c:v>4.05550682248461E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0419653563421397</c:v>
+                    <c:v>4.1965356342139735E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -511,13 +516,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0143055051501234</c:v>
+                    <c:v>1.4305505150123365E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0405550682248461</c:v>
+                    <c:v>4.05550682248461E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0419653563421397</c:v>
+                    <c:v>4.1965356342139735E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -547,13 +552,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.498969328539667</c:v>
+                  <c:v>0.49896932853966663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2548893198</c:v>
+                  <c:v>0.25488931980000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08256165175</c:v>
+                  <c:v>8.2561651750000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,11 +573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2076688024"/>
-        <c:axId val="2076685448"/>
+        <c:axId val="63208064"/>
+        <c:axId val="63218048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2076688024"/>
+        <c:axId val="63208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076685448"/>
+        <c:crossAx val="63218048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,10 +614,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076685448"/>
+        <c:axId val="63218048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -640,7 +645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076688024"/>
+        <c:crossAx val="63208064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -648,7 +653,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -712,13 +716,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0172476085298803</c:v>
+                    <c:v>1.7247608529880314E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0202327292606147</c:v>
+                    <c:v>2.0232729260614681E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0331140956894995</c:v>
+                    <c:v>3.3114095689499537E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -730,13 +734,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0172476085298803</c:v>
+                    <c:v>1.7247608529880314E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0202327292606147</c:v>
+                    <c:v>2.0232729260614681E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0331140956894995</c:v>
+                    <c:v>3.3114095689499537E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -773,13 +777,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.9281</c:v>
+                  <c:v>0.92810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.919766666666667</c:v>
+                  <c:v>0.91976666666666673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.843166666666666</c:v>
+                  <c:v>0.84316666666666651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,13 +822,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0220531932683984</c:v>
+                    <c:v>2.2053193268398434E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0111664676599183</c:v>
+                    <c:v>1.1166467659918293E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.025013796193301</c:v>
+                    <c:v>2.5013796193301047E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -836,13 +840,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0220531932683984</c:v>
+                    <c:v>2.2053193268398434E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0111664676599183</c:v>
+                    <c:v>1.1166467659918293E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.025013796193301</c:v>
+                    <c:v>2.5013796193301047E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -862,13 +866,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.882933333333333</c:v>
+                  <c:v>0.88293333333333324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.851</c:v>
+                  <c:v>0.85099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7685</c:v>
+                  <c:v>0.76849999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,13 +911,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0212445287074107</c:v>
+                    <c:v>2.1244528707410736E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0102430464218415</c:v>
+                    <c:v>1.0243046421841533E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0445841152579406</c:v>
+                    <c:v>4.4584115257940614E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -925,13 +929,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0212445287074107</c:v>
+                    <c:v>2.1244528707410736E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0102430464218415</c:v>
+                    <c:v>1.0243046421841533E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0445841152579406</c:v>
+                    <c:v>4.4584115257940614E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -951,13 +955,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7667</c:v>
+                  <c:v>0.76670000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.753</c:v>
+                  <c:v>0.75300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.586333333333333</c:v>
+                  <c:v>0.58633333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,13 +991,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0370355234875923</c:v>
+                    <c:v>3.7035523487592301E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0495969085058064</c:v>
+                    <c:v>4.959690850580644E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0483166982867552</c:v>
+                    <c:v>4.8316698286755187E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1005,13 +1009,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.0370355234875923</c:v>
+                    <c:v>3.7035523487592301E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0495969085058064</c:v>
+                    <c:v>4.959690850580644E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0483166982867552</c:v>
+                    <c:v>4.8316698286755187E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1031,13 +1035,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6743</c:v>
+                  <c:v>0.67430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.652933333333333</c:v>
+                  <c:v>0.65293333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.454833333333333</c:v>
+                  <c:v>0.45483333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,11 +1056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2029780408"/>
-        <c:axId val="2087299912"/>
+        <c:axId val="64638976"/>
+        <c:axId val="64640512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2029780408"/>
+        <c:axId val="64638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087299912"/>
+        <c:crossAx val="64640512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1093,11 +1097,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087299912"/>
+        <c:axId val="64640512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1125,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029780408"/>
+        <c:crossAx val="64638976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1133,7 +1137,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1231,7 +1234,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="First Round Vincristine"/>
@@ -1758,17 +1761,17 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>1.4305505150123365E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>4.05550682248461E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1884,12 +1887,12 @@
         <v>4.1965356342139735E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>3.7035523487592301E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>4.959690850580644E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>12</v>
       </c>
